--- a/h2DataBase.xlsx
+++ b/h2DataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t xml:space="preserve">
 				we optimize, you profit			
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>https://www.clipconverter.cc/tr/</t>
+  </si>
+  <si>
+    <t>1 Euro kaç Türk Lirası yapar?</t>
+  </si>
+  <si>
+    <t>http://euro.tlkur.com</t>
+  </si>
+  <si>
+    <t>http://euro.tlkur.com/</t>
   </si>
 </sst>
 </file>
@@ -369,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -405,6 +414,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="2" t="n">
+        <v>43158.08320918662</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="2" t="n">
+        <v>43158.09216671144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/h2DataBase.xlsx
+++ b/h2DataBase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t xml:space="preserve">
 				we optimize, you profit			
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>http://euro.tlkur.com/</t>
+  </si>
+  <si>
+    <t>https://ubersem.com</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -436,6 +439,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="2" t="n">
+        <v>43181.11419172976</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
